--- a/CRMPhone/templates/requests.xlsx
+++ b/CRMPhone/templates/requests.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Заявка</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Комментарий К Оценке</t>
+  </si>
+  <si>
+    <t>ФИО</t>
   </si>
 </sst>
 </file>
@@ -580,9 +583,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -904,9 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -917,21 +923,21 @@
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,43 +962,46 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
+  <autoFilter ref="A1:T1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRMPhone/templates/requests.xlsx
+++ b/CRMPhone/templates/requests.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Заявка</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>ФИО</t>
+  </si>
+  <si>
+    <t>Статус</t>
   </si>
 </sst>
 </file>
@@ -908,100 +911,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="20" width="30.42578125" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1"/>
+  <autoFilter ref="A1:U1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRMPhone/templates/requests.xlsx
+++ b/CRMPhone/templates/requests.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Заявка</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Статус</t>
+  </si>
+  <si>
+    <t>Гарантийная</t>
   </si>
 </sst>
 </file>
@@ -911,11 +914,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -935,12 +936,12 @@
     <col min="16" max="16" width="19.42578125" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
-    <col min="21" max="21" width="30.42578125" customWidth="1"/>
+    <col min="19" max="20" width="23.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,16 +999,19 @@
       <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1"/>
+  <autoFilter ref="A1:V1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRMPhone/templates/requests.xlsx
+++ b/CRMPhone/templates/requests.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Заявка</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Гарантийная</t>
+  </si>
+  <si>
+    <t>Повторная</t>
   </si>
 </sst>
 </file>
@@ -939,6 +942,7 @@
     <col min="19" max="20" width="23.85546875" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" customWidth="1"/>
     <col min="22" max="22" width="30.42578125" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1008,10 +1012,12 @@
       <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1"/>
+  <autoFilter ref="A1:W1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRMPhone/templates/requests.xlsx
+++ b/CRMPhone/templates/requests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerg\Google Диск\CallCenter\CallCenter\CRMPhone\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerg\Google Диск\CallCenter\CallCenterNewSip\CRMPhone\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Заявка</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Повторная</t>
+  </si>
+  <si>
+    <t>Последний комментарий исполнителя</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,9 +946,10 @@
     <col min="21" max="21" width="14.7109375" customWidth="1"/>
     <col min="22" max="22" width="30.42578125" customWidth="1"/>
     <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="24" max="24" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,9 +1019,12 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1"/>
+  <autoFilter ref="A1:X1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRMPhone/templates/requests.xlsx
+++ b/CRMPhone/templates/requests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerg\Google Диск\CallCenter\CallCenterNewSip\CRMPhone\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerg\Google Диск\CallCenter\CallCenter\CRMPhone\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$Y$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Заявка</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Последний комментарий исполнителя</t>
+  </si>
+  <si>
+    <t>Мастер</t>
   </si>
 </sst>
 </file>
@@ -920,9 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -939,17 +944,18 @@
     <col min="13" max="13" width="45.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="20" width="23.85546875" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="30.42578125" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="24" max="24" width="44.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="20" max="21" width="23.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="23" width="30.42578125" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" customWidth="1"/>
+    <col min="25" max="25" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,36 +1001,39 @@
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1"/>
+  <autoFilter ref="A1:Y1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>